--- a/output_reports/Абатменты_выжигаемые_01.01-01.02.xlsx
+++ b/output_reports/Абатменты_выжигаемые_01.01-01.02.xlsx
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="I10" s="9" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J10" s="10" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K10" s="17" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="17" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>04-05.02</t>
+          <t>07-08.02</t>
         </is>
       </c>
       <c r="T10" s="6" t="n"/>
       <c r="U10" s="6" t="n"/>
       <c r="V10" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1193,31 +1193,31 @@
         </is>
       </c>
       <c r="I11" s="13" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J11" s="14" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R11" s="4" t="n">
         <v>0</v>
@@ -1471,31 +1471,31 @@
         </is>
       </c>
       <c r="I16" s="4" t="n">
-        <v>1615</v>
+        <v>1598</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="L16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="N16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="R16" s="4" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>599</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" s="4" t="n">
         <v>0</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>1099</v>
@@ -1869,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4" t="n">
         <v>51</v>
-      </c>
-      <c r="P23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4" t="n">
-        <v>47</v>
       </c>
       <c r="R23" s="4" t="n">
         <v>0</v>
@@ -1951,19 +1951,19 @@
         </is>
       </c>
       <c r="I25" s="4" t="n">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M25" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N25" s="4" t="n">
         <v>0</v>
@@ -2027,19 +2027,19 @@
         </is>
       </c>
       <c r="I26" s="4" t="n">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="L26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N26" s="4" t="n">
         <v>0</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="I29" s="9" t="n">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="J29" s="10" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K29" s="4" t="n">
         <v>787</v>
@@ -2221,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R29" s="4" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="I30" s="13" t="n">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>638</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R30" s="4" t="n">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="I31" s="9" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J31" s="10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>132</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R31" s="4" t="n">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="I32" s="13" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>121</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="4" t="n">
         <v>0</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="S38" s="5" t="inlineStr">
         <is>
-          <t>06-07.02</t>
+          <t>09-10.02</t>
         </is>
       </c>
       <c r="T38" s="6" t="n"/>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="I52" s="4" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K52" s="4" t="n">
         <v>292</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R52" s="4" t="n">
         <v>0</v>
@@ -4307,10 +4307,10 @@
         </is>
       </c>
       <c r="I62" s="4" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K62" s="4" t="n">
         <v>75</v>
@@ -4325,13 +4325,13 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R62" s="4" t="n">
         <v>0</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="I63" s="4" t="n">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K63" s="4" t="n">
         <v>366</v>
@@ -4401,13 +4401,13 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R63" s="4" t="n">
         <v>0</v>
@@ -4483,31 +4483,31 @@
         </is>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1742</v>
+        <v>1624</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>371</v>
+        <v>505</v>
       </c>
       <c r="K65" s="4" t="n">
-        <v>1187</v>
+        <v>1160</v>
       </c>
       <c r="L65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M65" s="4" t="n">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="N65" s="4" t="n">
         <v>40</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>504</v>
+        <v>413</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>51</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="R65" s="4" t="n">
         <v>15</v>
@@ -4516,7 +4516,7 @@
       <c r="T65" s="6" t="n"/>
       <c r="U65" s="6" t="n"/>
       <c r="V65" s="4" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66">
@@ -4561,31 +4561,31 @@
         </is>
       </c>
       <c r="I66" s="4" t="n">
-        <v>2404</v>
+        <v>2335</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>1786</v>
+        <v>1750</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>7</v>
       </c>
       <c r="M66" s="4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N66" s="4" t="n">
         <v>20</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>50</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="R66" s="4" t="n">
         <v>0</v>
@@ -4594,7 +4594,7 @@
       <c r="T66" s="6" t="n"/>
       <c r="U66" s="6" t="n"/>
       <c r="V66" s="4" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
@@ -4663,31 +4663,31 @@
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>658</v>
+        <v>619</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="K68" s="4" t="n">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="L68" s="4" t="n">
         <v>2</v>
       </c>
       <c r="M68" s="4" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="N68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>5</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="R68" s="4" t="n">
         <v>0</v>
@@ -4739,10 +4739,10 @@
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K69" s="4" t="n">
         <v>377</v>
@@ -4757,13 +4757,13 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R69" s="4" t="n">
         <v>0</v>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K71" s="4" t="n">
         <v>127</v>
@@ -4857,13 +4857,13 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R71" s="4" t="n">
         <v>0</v>
@@ -5039,10 +5039,10 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K75" s="4" t="n">
         <v>73</v>
@@ -5057,13 +5057,13 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>4</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R75" s="4" t="n">
         <v>0</v>
@@ -5215,41 +5215,39 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1373</v>
+        <v>1330</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="K78" s="4" t="n">
-        <v>925</v>
+        <v>883</v>
       </c>
       <c r="L78" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M78" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N78" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>2</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S78" s="5" t="inlineStr"/>
       <c r="T78" s="6" t="n"/>
       <c r="U78" s="6" t="n"/>
-      <c r="V78" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="V78" s="4" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
@@ -5293,10 +5291,10 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K79" s="4" t="n">
         <v>965</v>
@@ -5311,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>3</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R79" s="4" t="n">
         <v>0</v>
@@ -5547,13 +5545,13 @@
         </is>
       </c>
       <c r="I83" s="9" t="n">
-        <v>920</v>
+        <v>866</v>
       </c>
       <c r="J83" s="10" t="n">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="K83" s="4" t="n">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="L83" s="4" t="n">
         <v>1</v>
@@ -5565,13 +5563,13 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="R83" s="4" t="n">
         <v>0</v>
@@ -5625,10 +5623,10 @@
         </is>
       </c>
       <c r="I84" s="13" t="n">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="J84" s="14" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K84" s="4" t="n">
         <v>1103</v>
@@ -5643,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R84" s="4" t="n">
         <v>1</v>
@@ -5658,7 +5656,7 @@
       <c r="T84" s="6" t="n"/>
       <c r="U84" s="6" t="n"/>
       <c r="V84" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -6031,19 +6029,19 @@
         </is>
       </c>
       <c r="I90" s="9" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J90" s="10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K90" s="4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L90" s="4" t="n">
         <v>3</v>
       </c>
       <c r="M90" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N90" s="4" t="n">
         <v>0</v>
@@ -6062,7 +6060,7 @@
       </c>
       <c r="S90" s="5" t="inlineStr">
         <is>
-          <t>08-09.02</t>
+          <t>11-12.02</t>
         </is>
       </c>
       <c r="T90" s="6" t="n"/>
@@ -6146,7 +6144,7 @@
       <c r="T91" s="6" t="n"/>
       <c r="U91" s="6" t="n"/>
       <c r="V91" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -6367,10 +6365,10 @@
         </is>
       </c>
       <c r="I95" s="4" t="n">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="J95" s="4" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K95" s="4" t="n">
         <v>126</v>
@@ -6385,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="R95" s="4" t="n">
         <v>0</v>
@@ -6399,9 +6397,7 @@
       <c r="S95" s="5" t="inlineStr"/>
       <c r="T95" s="6" t="n"/>
       <c r="U95" s="6" t="n"/>
-      <c r="V95" s="4" t="n">
-        <v>30</v>
-      </c>
+      <c r="V95" s="4" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="19" t="n"/>
@@ -6469,19 +6465,19 @@
         </is>
       </c>
       <c r="I97" s="9" t="n">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="J97" s="10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K97" s="4" t="n">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="L97" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M97" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N97" s="4" t="n">
         <v>0</v>
@@ -6545,31 +6541,31 @@
         </is>
       </c>
       <c r="I98" s="13" t="n">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="J98" s="14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K98" s="4" t="n">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="L98" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M98" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N98" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P98" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R98" s="4" t="n">
         <v>0</v>
@@ -6797,19 +6793,19 @@
         </is>
       </c>
       <c r="I102" s="22" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J102" s="22" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M102" s="4" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N102" s="4" t="n">
         <v>0</v>
@@ -6826,12 +6822,10 @@
       <c r="R102" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S102" s="5" t="inlineStr">
-        <is>
-          <t>31.01-03.02</t>
-        </is>
-      </c>
-      <c r="T102" s="6" t="n"/>
+      <c r="S102" s="5" t="inlineStr"/>
+      <c r="T102" s="6" t="n">
+        <v>837</v>
+      </c>
       <c r="U102" s="6" t="n"/>
       <c r="V102" s="4" t="n"/>
     </row>
@@ -6934,7 +6928,7 @@
       <c r="T104" s="6" t="n"/>
       <c r="U104" s="6" t="n"/>
       <c r="V104" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -7012,7 +7006,7 @@
       <c r="T105" s="6" t="n"/>
       <c r="U105" s="6" t="n"/>
       <c r="V105" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -7081,19 +7075,19 @@
         </is>
       </c>
       <c r="I107" s="4" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J107" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K107" s="4" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L107" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M107" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N107" s="4" t="n">
         <v>0</v>
@@ -7157,10 +7151,10 @@
         </is>
       </c>
       <c r="I108" s="9" t="n">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="J108" s="10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K108" s="4" t="n">
         <v>422</v>
@@ -7175,13 +7169,13 @@
         <v>0</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P108" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q108" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R108" s="4" t="n">
         <v>0</v>
@@ -7235,31 +7229,31 @@
         </is>
       </c>
       <c r="I109" s="13" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J109" s="14" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L109" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M109" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N109" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P109" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R109" s="4" t="n">
         <v>0</v>
@@ -7311,10 +7305,10 @@
         </is>
       </c>
       <c r="I110" s="9" t="n">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J110" s="10" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K110" s="4" t="n">
         <v>183</v>
@@ -7329,13 +7323,13 @@
         <v>0</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P110" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R110" s="4" t="n">
         <v>0</v>
@@ -7389,13 +7383,13 @@
         </is>
       </c>
       <c r="I111" s="13" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="J111" s="14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>1</v>
@@ -7407,13 +7401,13 @@
         <v>0</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="P111" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q111" s="4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R111" s="4" t="n">
         <v>0</v>
@@ -7589,31 +7583,31 @@
         </is>
       </c>
       <c r="I115" s="4" t="n">
-        <v>928</v>
+        <v>815</v>
       </c>
       <c r="J115" s="4" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="K115" s="4" t="n">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="L115" s="4" t="n">
         <v>3</v>
       </c>
       <c r="M115" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N115" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O115" s="4" t="n">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P115" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q115" s="4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R115" s="4" t="n">
         <v>0</v>
@@ -7621,9 +7615,7 @@
       <c r="S115" s="5" t="inlineStr"/>
       <c r="T115" s="6" t="n"/>
       <c r="U115" s="6" t="n"/>
-      <c r="V115" s="4" t="n">
-        <v>6</v>
-      </c>
+      <c r="V115" s="4" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="19" t="n"/>
@@ -7697,7 +7689,7 @@
         <v>16</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="L117" s="4" t="n">
         <v>0</v>
@@ -7709,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="P117" s="4" t="n">
         <v>0</v>
@@ -7767,13 +7759,13 @@
         </is>
       </c>
       <c r="I118" s="13" t="n">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J118" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="4" t="n">
-        <v>1004</v>
+        <v>903</v>
       </c>
       <c r="L118" s="4" t="n">
         <v>0</v>
@@ -7785,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>228</v>
+        <v>328</v>
       </c>
       <c r="P118" s="4" t="n">
         <v>0</v>
@@ -7794,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="R118" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S118" s="5" t="inlineStr"/>
       <c r="T118" s="6" t="n"/>
@@ -7843,10 +7835,10 @@
         </is>
       </c>
       <c r="I119" s="9" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J119" s="10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K119" s="4" t="n">
         <v>73</v>
@@ -7861,13 +7853,13 @@
         <v>0</v>
       </c>
       <c r="O119" s="4" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P119" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q119" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R119" s="4" t="n">
         <v>0</v>
@@ -7925,7 +7917,7 @@
         <v>10</v>
       </c>
       <c r="K120" s="4" t="n">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="L120" s="4" t="n">
         <v>0</v>
@@ -7937,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="4" t="n">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="P120" s="4" t="n">
         <v>0</v>
@@ -8071,13 +8063,13 @@
         </is>
       </c>
       <c r="I122" s="13" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J122" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="4" t="n">
-        <v>611</v>
+        <v>510</v>
       </c>
       <c r="L122" s="4" t="n">
         <v>0</v>
@@ -8089,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P122" s="4" t="n">
         <v>0</v>
@@ -8098,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="R122" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" s="5" t="inlineStr"/>
       <c r="T122" s="6" t="n"/>
@@ -8247,31 +8239,31 @@
         </is>
       </c>
       <c r="I125" s="9" t="n">
-        <v>2221</v>
+        <v>2193</v>
       </c>
       <c r="J125" s="10" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="K125" s="4" t="n">
-        <v>1812</v>
+        <v>1801</v>
       </c>
       <c r="L125" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M125" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N125" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O125" s="4" t="n">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="P125" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q125" s="4" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="R125" s="4" t="n">
         <v>0</v>
@@ -8325,31 +8317,31 @@
         </is>
       </c>
       <c r="I126" s="13" t="n">
-        <v>980</v>
+        <v>914</v>
       </c>
       <c r="J126" s="14" t="n">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="K126" s="4" t="n">
-        <v>775</v>
+        <v>719</v>
       </c>
       <c r="L126" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M126" s="4" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="N126" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O126" s="4" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="P126" s="4" t="n">
         <v>2</v>
       </c>
       <c r="Q126" s="4" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="R126" s="4" t="n">
         <v>0</v>
@@ -8403,40 +8395,40 @@
         </is>
       </c>
       <c r="I127" s="9" t="n">
-        <v>2172</v>
+        <v>1983</v>
       </c>
       <c r="J127" s="10" t="n">
-        <v>419</v>
+        <v>618</v>
       </c>
       <c r="K127" s="4" t="n">
-        <v>1413</v>
+        <v>1382</v>
       </c>
       <c r="L127" s="4" t="n">
         <v>10</v>
       </c>
       <c r="M127" s="4" t="n">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="N127" s="4" t="n">
         <v>40</v>
       </c>
       <c r="O127" s="4" t="n">
-        <v>749</v>
+        <v>591</v>
       </c>
       <c r="P127" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q127" s="4" t="n">
-        <v>266</v>
+        <v>424</v>
       </c>
       <c r="R127" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S127" s="5" t="inlineStr"/>
       <c r="T127" s="6" t="n"/>
       <c r="U127" s="6" t="n"/>
       <c r="V127" s="4" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128">
@@ -8481,31 +8473,31 @@
         </is>
       </c>
       <c r="I128" s="13" t="n">
-        <v>1697</v>
+        <v>1600</v>
       </c>
       <c r="J128" s="14" t="n">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="K128" s="4" t="n">
-        <v>1198</v>
+        <v>1115</v>
       </c>
       <c r="L128" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M128" s="4" t="n">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="N128" s="4" t="n">
         <v>50</v>
       </c>
       <c r="O128" s="4" t="n">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="P128" s="4" t="n">
         <v>6</v>
       </c>
       <c r="Q128" s="4" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="R128" s="4" t="n">
         <v>2</v>
@@ -8514,7 +8506,7 @@
       <c r="T128" s="6" t="n"/>
       <c r="U128" s="6" t="n"/>
       <c r="V128" s="4" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -8583,10 +8575,10 @@
         </is>
       </c>
       <c r="I130" s="4" t="n">
-        <v>1837</v>
+        <v>1821</v>
       </c>
       <c r="J130" s="4" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K130" s="4" t="n">
         <v>1459</v>
@@ -8601,13 +8593,13 @@
         <v>10</v>
       </c>
       <c r="O130" s="4" t="n">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="P130" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q130" s="4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="R130" s="4" t="n">
         <v>14</v>
@@ -9061,31 +9053,31 @@
         </is>
       </c>
       <c r="I139" s="9" t="n">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J139" s="10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K139" s="4" t="n">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L139" s="4" t="n">
         <v>2</v>
       </c>
       <c r="M139" s="4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N139" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O139" s="4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P139" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q139" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R139" s="4" t="n">
         <v>0</v>
@@ -9213,19 +9205,19 @@
         </is>
       </c>
       <c r="I141" s="9" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J141" s="10" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K141" s="4" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L141" s="4" t="n">
         <v>2</v>
       </c>
       <c r="M141" s="4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N141" s="4" t="n">
         <v>0</v>
@@ -9245,7 +9237,9 @@
       <c r="S141" s="5" t="inlineStr"/>
       <c r="T141" s="6" t="n"/>
       <c r="U141" s="6" t="n"/>
-      <c r="V141" s="4" t="n"/>
+      <c r="V141" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
@@ -9673,9 +9667,7 @@
       <c r="S148" s="5" t="inlineStr"/>
       <c r="T148" s="6" t="n"/>
       <c r="U148" s="6" t="n"/>
-      <c r="V148" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V148" s="4" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
@@ -9795,19 +9787,19 @@
         </is>
       </c>
       <c r="I150" s="9" t="n">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="J150" s="10" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K150" s="4" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L150" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M150" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N150" s="4" t="n">
         <v>0</v>
@@ -9827,9 +9819,7 @@
       <c r="S150" s="5" t="inlineStr"/>
       <c r="T150" s="6" t="n"/>
       <c r="U150" s="6" t="n"/>
-      <c r="V150" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V150" s="4" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
@@ -9981,9 +9971,7 @@
       <c r="S152" s="5" t="inlineStr"/>
       <c r="T152" s="6" t="n"/>
       <c r="U152" s="6" t="n"/>
-      <c r="V152" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V152" s="4" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
@@ -10203,13 +10191,13 @@
         </is>
       </c>
       <c r="I156" s="9" t="n">
-        <v>589</v>
+        <v>1439</v>
       </c>
       <c r="J156" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K156" s="4" t="n">
-        <v>1</v>
+        <v>851</v>
       </c>
       <c r="L156" s="4" t="n">
         <v>0</v>
@@ -10234,7 +10222,7 @@
       </c>
       <c r="S156" s="5" t="inlineStr"/>
       <c r="T156" s="6" t="n">
-        <v>673</v>
+        <v>519</v>
       </c>
       <c r="U156" s="6" t="n"/>
       <c r="V156" s="4" t="n"/>
